--- a/code_generate_figures/save_data/spt_DIA/spt_DIAavg_rankings.xlsx
+++ b/code_generate_figures/save_data/spt_DIA/spt_DIAavg_rankings.xlsx
@@ -71,15 +71,15 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">LFQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">dlfq</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
@@ -92,15 +92,15 @@
     <t xml:space="preserve">top1</t>
   </si>
   <si>
+    <t xml:space="preserve">ROTS</t>
+  </si>
+  <si>
     <t xml:space="preserve">limma</t>
   </si>
   <si>
     <t xml:space="preserve">DEP</t>
   </si>
   <si>
-    <t xml:space="preserve">ROTS</t>
-  </si>
-  <si>
     <t xml:space="preserve">proDA</t>
   </si>
   <si>
@@ -128,27 +128,27 @@
     <t xml:space="preserve">MinDet</t>
   </si>
   <si>
+    <t xml:space="preserve">MinProb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bpca</t>
+  </si>
+  <si>
     <t xml:space="preserve">nbavg</t>
   </si>
   <si>
-    <t xml:space="preserve">MinProb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpca</t>
+    <t xml:space="preserve">SeqKNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">missForest</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SeqKNN</t>
-  </si>
-  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
@@ -164,27 +164,27 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">mice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impseqrob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
     <t xml:space="preserve">blank</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impseqrob</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">center.median</t>
   </si>
   <si>
+    <t xml:space="preserve">div.median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center.mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">vsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">div.median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">center.mean</t>
   </si>
   <si>
     <t xml:space="preserve">quantiles</t>
@@ -914,40 +914,40 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -967,40 +967,40 @@
         <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1020,40 +1020,40 @@
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>0.833333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -1091,10 +1091,10 @@
         <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6">
@@ -1370,22 +1370,22 @@
         <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>35</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1414,10 +1414,10 @@
         <v>36</v>
       </c>
       <c r="I3" t="n">
-        <v>0.733333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -1438,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -1458,40 +1458,40 @@
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.866666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
       </c>
       <c r="I4" t="n">
-        <v>0.866666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
         <v>37</v>
       </c>
       <c r="L4" t="n">
-        <v>0.933333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>37</v>
       </c>
       <c r="O4" t="n">
-        <v>0.933333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1511,40 +1511,40 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.666666666666667</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N5" t="s">
         <v>38</v>
       </c>
       <c r="O5" t="n">
-        <v>0.666666666666667</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="6">
@@ -1564,40 +1564,40 @@
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>0.733333333333333</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
         <v>39</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
       </c>
       <c r="O6" t="n">
-        <v>0.466666666666667</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="P6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1617,40 +1617,40 @@
         <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>0.933333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>40</v>
       </c>
       <c r="I7" t="n">
-        <v>0.933333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
         <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>0.533333333333333</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>40</v>
       </c>
       <c r="O7" t="n">
-        <v>0.533333333333333</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
       </c>
       <c r="I8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
         <v>41</v>
       </c>
       <c r="L8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.4</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="9">
@@ -1723,40 +1723,40 @@
         <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>0.533333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="n">
-        <v>0.533333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
         <v>43</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" t="s">
         <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>0.266666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.8</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="10">
@@ -1794,10 +1794,10 @@
         <v>45</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" t="s">
         <v>45</v>
@@ -1809,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1838,10 +1838,10 @@
         <v>47</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="12">
@@ -1882,40 +1882,40 @@
         <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>0.133333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
         <v>49</v>
       </c>
       <c r="I12" t="n">
-        <v>0.133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
         <v>49</v>
       </c>
       <c r="L12" t="n">
-        <v>0.266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N12" t="s">
         <v>49</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="P12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="13">
@@ -1935,40 +1935,40 @@
         <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
         <v>51</v>
       </c>
       <c r="I13" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>51</v>
       </c>
       <c r="L13" t="n">
-        <v>0.466666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
         <v>51</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="14">
@@ -1988,40 +1988,40 @@
         <v>53</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>53</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
         <v>53</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>53</v>
       </c>
       <c r="O14" t="n">
-        <v>0.133333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="15">
@@ -2041,40 +2041,40 @@
         <v>55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.266666666666667</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
         <v>55</v>
       </c>
       <c r="I15" t="n">
-        <v>0.266666666666667</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
         <v>55</v>
       </c>
       <c r="L15" t="n">
-        <v>0.133333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
         <v>55</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2094,40 +2094,40 @@
         <v>57</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
       </c>
       <c r="L16" t="n">
-        <v>0.733333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
         <v>57</v>
       </c>
       <c r="O16" t="n">
-        <v>0.866666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="17">
@@ -2174,13 +2174,13 @@
         <v>59</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="P17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q17" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -2585,40 +2585,40 @@
         <v>65</v>
       </c>
       <c r="F8" t="n">
-        <v>0.230769230769231</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>65</v>
       </c>
       <c r="I8" t="n">
-        <v>0.230769230769231</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>65</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9">
@@ -2638,10 +2638,10 @@
         <v>66</v>
       </c>
       <c r="F9" t="n">
-        <v>0.461538461538462</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>66</v>
@@ -2656,22 +2656,22 @@
         <v>66</v>
       </c>
       <c r="L9" t="n">
-        <v>0.307692307692308</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>
       </c>
       <c r="O9" t="n">
-        <v>0.307692307692308</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10">
@@ -2691,40 +2691,40 @@
         <v>67</v>
       </c>
       <c r="F10" t="n">
-        <v>0.384615384615385</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>67</v>
       </c>
       <c r="I10" t="n">
-        <v>0.461538461538462</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>67</v>
       </c>
       <c r="L10" t="n">
-        <v>0.846153846153846</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
         <v>67</v>
       </c>
       <c r="O10" t="n">
-        <v>0.846153846153846</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="11">
@@ -2850,10 +2850,10 @@
         <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>70</v>
@@ -2868,10 +2868,10 @@
         <v>70</v>
       </c>
       <c r="L13" t="n">
-        <v>0.384615384615385</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
         <v>70</v>
@@ -2883,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="14">
@@ -2956,10 +2956,10 @@
         <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>0.153846153846154</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>72</v>
@@ -2974,10 +2974,10 @@
         <v>72</v>
       </c>
       <c r="L15" t="n">
-        <v>0.461538461538462</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15" t="s">
         <v>72</v>
@@ -2989,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="Q15" t="n">
-        <v>11</v>
+        <v>11.6</v>
       </c>
     </row>
   </sheetData>
